--- a/Assignment/Assignment2_practicle/HLR&TESTCASES.xlsx
+++ b/Assignment/Assignment2_practicle/HLR&TESTCASES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SoftwareTesting\Assignments\Assignment2_practicle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SoftwareTesting\GIT\ManualPracticalTask\Suha-Manual-Testing\Assignment\Assignment2_practicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="967" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="967"/>
   </bookViews>
   <sheets>
     <sheet name="HLR_Instagram_First page" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="106">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t xml:space="preserve">Check forgotten account link button </t>
-  </si>
-  <si>
-    <t>logout add karvanu?</t>
   </si>
   <si>
     <t>On click popup window should open to enter email/mobile no to search account with email/mobile no.</t>
@@ -700,6 +697,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,29 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,19 +1038,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1062,17 +1059,17 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1081,17 +1078,17 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1100,17 +1097,17 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1119,17 +1116,17 @@
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1138,17 +1135,17 @@
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1157,17 +1154,17 @@
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1176,17 +1173,17 @@
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -1195,22 +1192,17 @@
       <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1249,17 +1241,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
@@ -1576,19 +1568,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1597,17 +1589,17 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1616,17 +1608,17 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1635,17 +1627,17 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1654,75 +1646,75 @@
       <c r="B5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="C5" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="43"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1760,17 +1752,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -1815,7 +1807,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>29</v>
@@ -1844,13 +1836,13 @@
         <v>35</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>31</v>
@@ -1873,13 +1865,13 @@
         <v>35</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>33</v>
@@ -1902,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>43</v>
@@ -1931,13 +1923,13 @@
         <v>35</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>46</v>
@@ -1954,19 +1946,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>46</v>
@@ -2032,19 +2024,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="A1" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2053,17 +2045,17 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2072,74 +2064,74 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="C3" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2174,17 +2166,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="A1" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -2229,9 +2221,9 @@
         <v>35</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="34" t="s">
@@ -2252,19 +2244,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>31</v>
@@ -2281,19 +2273,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>46</v>
@@ -2310,19 +2302,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>46</v>
@@ -2354,19 +2346,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="A1" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2375,17 +2367,17 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2394,55 +2386,55 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="C3" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+        <v>91</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2461,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2478,17 +2470,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="A1" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -2533,13 +2525,13 @@
         <v>35</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>31</v>
@@ -2556,19 +2548,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>31</v>
@@ -2585,19 +2577,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="G5" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>46</v>
@@ -2613,49 +2605,49 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>89</v>
+      <c r="C6" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="71" t="s">
+      <c r="G6" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+      <c r="A7" s="53">
         <v>5</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="53">
         <v>3</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>99</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>46</v>
@@ -2671,25 +2663,25 @@
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="69" t="s">
-        <v>89</v>
+      <c r="C8" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2700,25 +2692,25 @@
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>89</v>
+      <c r="C9" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="59" t="s">
         <v>34</v>
       </c>
     </row>
